--- a/biology/Zoologie/Carpophage_de_Céram/Carpophage_de_Céram.xlsx
+++ b/biology/Zoologie/Carpophage_de_Céram/Carpophage_de_Céram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carpophage_de_C%C3%A9ram</t>
+          <t>Carpophage_de_Céram</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ducula neglecta
 Le Carpophage de Céram (Ducula neglecta) est une espèce d'oiseaux appartenant à la famille des Columbidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carpophage_de_C%C3%A9ram</t>
+          <t>Carpophage_de_Céram</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 42 cm de longueur. Il ne présente pas de dimorphisme sexuel.
 Il ressemble beaucoup au Carpophage à lunettes dont il était considéré comme une simple sous-espèce. Il en diffère par la tête gris clair (au lieu de gris bleuâtre foncé) et la coloration vert doré métallique des parties supérieures (au lieu de bleu vert ou vert bronze).
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carpophage_de_C%C3%A9ram</t>
+          <t>Carpophage_de_Céram</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est endémique des Moluques (Céram et îles avoisinantes).
 </t>
